--- a/intended-information-service/intended-information-service.xlsx
+++ b/intended-information-service/intended-information-service.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scrocca\Desktop\cefriel-github\controlled-vocabularies\base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA936185-B30B-475D-BA6F-3560419718E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C23370CC-77FE-4AEB-A789-1AF25E2971E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2550" yWindow="2550" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>ConceptScheme URI</t>
   </si>
@@ -131,6 +131,15 @@
   </si>
   <si>
     <t>Controlled vocabulary describing the intended information service for a dataset.</t>
+  </si>
+  <si>
+    <t>http://purl.org/ontology/bibo/status</t>
+  </si>
+  <si>
+    <t>owl:priorVersion</t>
+  </si>
+  <si>
+    <t>Draft Controlled Vocabulary</t>
   </si>
 </sst>
 </file>
@@ -529,10 +538,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -545,7 +554,7 @@
     <col min="6" max="6" width="30.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -553,7 +562,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -562,7 +571,7 @@
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -571,7 +580,7 @@
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -580,7 +589,7 @@
       </c>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -589,7 +598,7 @@
       </c>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
@@ -598,19 +607,19 @@
       </c>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
@@ -619,7 +628,7 @@
       </c>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
@@ -629,115 +638,130 @@
       </c>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" t="str">
-        <f>_xlfn.CONCAT($B$1,"/",SUBSTITUTE(SUBSTITUTE(LOWER(B17)," ","-"),",",""))</f>
+    <row r="19" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="str">
+        <f>_xlfn.CONCAT($B$1,"/",SUBSTITUTE(SUBSTITUTE(LOWER(B19)," ","-"),",",""))</f>
         <v>https://w3id.org/mobilitydcat-ap/intended-information-service/location-search</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B19" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" t="str">
-        <f t="shared" ref="A18:A25" si="0">_xlfn.CONCAT($B$1,"/",SUBSTITUTE(SUBSTITUTE(LOWER(B18)," ","-"),",",""))</f>
+    <row r="20" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="str">
+        <f t="shared" ref="A20:A27" si="0">_xlfn.CONCAT($B$1,"/",SUBSTITUTE(SUBSTITUTE(LOWER(B20)," ","-"),",",""))</f>
         <v>https://w3id.org/mobilitydcat-ap/intended-information-service/information-service</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B20" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="str">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>https://w3id.org/mobilitydcat-ap/intended-information-service/trip-plans</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B21" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="str">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>https://w3id.org/mobilitydcat-ap/intended-information-service/trip-plans-auxiliary-information-availability-check</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B22" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="str">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>https://w3id.org/mobilitydcat-ap/intended-information-service/trip-plan-computation-scheduled-modes-transport</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B23" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="str">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>https://w3id.org/mobilitydcat-ap/intended-information-service/dynamic-passing-times-trip-plans-and-auxiliary-information</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B24" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="str">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>https://w3id.org/mobilitydcat-ap/intended-information-service/dynamic-information-service</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B25" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="str">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>https://w3id.org/mobilitydcat-ap/intended-information-service/dynamic-availability-check</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B26" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="str">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>https://w3id.org/mobilitydcat-ap/intended-information-service/other</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B27" s="6" t="s">
         <v>28</v>
       </c>
     </row>
@@ -745,7 +769,7 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" xr:uid="{8D37ED2A-6F4C-4B2C-B212-84B5255111B4}"/>
-    <hyperlink ref="B11" r:id="rId2" xr:uid="{F5CCEF78-A2AE-420B-8B79-2E74A78B421A}"/>
+    <hyperlink ref="B12" r:id="rId2" xr:uid="{F5CCEF78-A2AE-420B-8B79-2E74A78B421A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -765,6 +789,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="4ea66b1c-fa60-4493-a86c-b420df37761a" xsi:nil="true"/>
@@ -775,15 +808,6 @@
     <note xmlns="322c47a9-7cf9-4f39-ba36-4bf679c08fb0" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1050,20 +1074,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{354E852E-38F4-443F-ABCC-E4BE2043727A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15000A27-3F68-41AA-9013-08256DBF28C0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="4ea66b1c-fa60-4493-a86c-b420df37761a"/>
     <ds:schemaRef ds:uri="322c47a9-7cf9-4f39-ba36-4bf679c08fb0"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{354E852E-38F4-443F-ABCC-E4BE2043727A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/intended-information-service/intended-information-service.xlsx
+++ b/intended-information-service/intended-information-service.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scrocca\Desktop\cefriel-github\controlled-vocabularies\base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C23370CC-77FE-4AEB-A789-1AF25E2971E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76ED38A5-6C58-49DB-BB76-1E553E0C0941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2550" yWindow="2550" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3930" yWindow="3930" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -67,9 +67,6 @@
     <t>owl:versionInfo</t>
   </si>
   <si>
-    <t>0.1.0</t>
-  </si>
-  <si>
     <t>owl:versionIRI</t>
   </si>
   <si>
@@ -139,7 +136,10 @@
     <t>owl:priorVersion</t>
   </si>
   <si>
-    <t>Draft Controlled Vocabulary</t>
+    <t>1.0.0</t>
+  </si>
+  <si>
+    <t>Published Controlled Vocabulary</t>
   </si>
 </sst>
 </file>
@@ -559,7 +559,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -567,7 +567,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="1"/>
     </row>
@@ -576,7 +576,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" s="1"/>
     </row>
@@ -624,39 +624,39 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" t="str">
         <f>_xlfn.CONCAT(B1,"/",B9)</f>
-        <v>https://w3id.org/mobilitydcat-ap/intended-information-service/0.1.0</v>
+        <v>https://w3id.org/mobilitydcat-ap/intended-information-service/1.0.0</v>
       </c>
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>13</v>
       </c>
       <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
         <v>34</v>
@@ -664,24 +664,24 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="E18" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -690,7 +690,7 @@
         <v>https://w3id.org/mobilitydcat-ap/intended-information-service/location-search</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -699,7 +699,7 @@
         <v>https://w3id.org/mobilitydcat-ap/intended-information-service/information-service</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -708,7 +708,7 @@
         <v>https://w3id.org/mobilitydcat-ap/intended-information-service/trip-plans</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -717,7 +717,7 @@
         <v>https://w3id.org/mobilitydcat-ap/intended-information-service/trip-plans-auxiliary-information-availability-check</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -726,7 +726,7 @@
         <v>https://w3id.org/mobilitydcat-ap/intended-information-service/trip-plan-computation-scheduled-modes-transport</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -735,7 +735,7 @@
         <v>https://w3id.org/mobilitydcat-ap/intended-information-service/dynamic-passing-times-trip-plans-and-auxiliary-information</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -744,7 +744,7 @@
         <v>https://w3id.org/mobilitydcat-ap/intended-information-service/dynamic-information-service</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -753,7 +753,7 @@
         <v>https://w3id.org/mobilitydcat-ap/intended-information-service/dynamic-availability-check</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -762,7 +762,7 @@
         <v>https://w3id.org/mobilitydcat-ap/intended-information-service/other</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -789,28 +789,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="4ea66b1c-fa60-4493-a86c-b420df37761a" xsi:nil="true"/>
-    <Date_x002f_Heure xmlns="322c47a9-7cf9-4f39-ba36-4bf679c08fb0" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="322c47a9-7cf9-4f39-ba36-4bf679c08fb0">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <note xmlns="322c47a9-7cf9-4f39-ba36-4bf679c08fb0" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100156B981FAAFB4349A28B03AB4EEECF9F" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1e7c9bb6974a57a0073a8d48fc3b6089">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4ea66b1c-fa60-4493-a86c-b420df37761a" xmlns:ns3="322c47a9-7cf9-4f39-ba36-4bf679c08fb0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d5753863158ce54f5fdf0d8971fe3971" ns2:_="" ns3:_="">
     <xsd:import namespace="4ea66b1c-fa60-4493-a86c-b420df37761a"/>
@@ -1073,26 +1051,29 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="4ea66b1c-fa60-4493-a86c-b420df37761a" xsi:nil="true"/>
+    <Date_x002f_Heure xmlns="322c47a9-7cf9-4f39-ba36-4bf679c08fb0" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="322c47a9-7cf9-4f39-ba36-4bf679c08fb0">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <note xmlns="322c47a9-7cf9-4f39-ba36-4bf679c08fb0" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{354E852E-38F4-443F-ABCC-E4BE2043727A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15000A27-3F68-41AA-9013-08256DBF28C0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="4ea66b1c-fa60-4493-a86c-b420df37761a"/>
-    <ds:schemaRef ds:uri="322c47a9-7cf9-4f39-ba36-4bf679c08fb0"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F6420A2-E5AA-48E0-B2A3-7AF3B285ED27}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1109,4 +1090,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15000A27-3F68-41AA-9013-08256DBF28C0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="4ea66b1c-fa60-4493-a86c-b420df37761a"/>
+    <ds:schemaRef ds:uri="322c47a9-7cf9-4f39-ba36-4bf679c08fb0"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{354E852E-38F4-443F-ABCC-E4BE2043727A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>